--- a/hz-back/src/main/resources/excel/report_8.xlsx
+++ b/hz-back/src/main/resources/excel/report_8.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40420A1-C61A-43E3-880A-0C86563968F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>惠州农商行五级分类不良贷款明细表</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -50,14 +51,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>一级支行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级支行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>贷款账号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -135,15 +128,19 @@
     <t>CAP_OVERDUE_DATE</t>
   </si>
   <si>
-    <t>$MAIN_BR_ID</t>
+    <t>贷款机构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$MAIN_BR_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,60 +233,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -297,11 +285,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,9 +371,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,6 +423,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,275 +616,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B1:B1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="8.88671875" style="13"/>
-    <col min="11" max="11" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="7"/>
+    <col min="10" max="10" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="25.8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="24">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="28.8">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="J4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="L4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -861,12 +879,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -875,12 +893,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
